--- a/gst_reco/sample_books_data.xlsx
+++ b/gst_reco/sample_books_data.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,23 +425,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="19" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="21" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="11" customWidth="1" min="8" max="8"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -455,68 +441,104 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Invoice No</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Invoice Date</t>
+          <t>Invoice Type</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Voucher Ref. No.</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Voucher No</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Voucher Ref. Date</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Taxable Value</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>IGST</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>CGST</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>SGST</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total GST</t>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>24ABKCS2033B1ZV</t>
+          <t>29ETLPB1739K1ZB</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11129</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>45670</v>
-      </c>
-      <c r="D2" t="n">
-        <v>999</v>
-      </c>
-      <c r="E2" t="n">
-        <v>179.82</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
+          <t>Neo Fasteners</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>21-03-2025</t>
+        </is>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>179.82</v>
+        <v>2705</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>243.45</v>
+      </c>
+      <c r="J2" t="n">
+        <v>243.45</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>SGST - 9%</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -527,116 +549,257 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>11652</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>45701</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2699</v>
-      </c>
-      <c r="E3" t="n">
-        <v>485.82</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
+          <t>Sandbox Financial Technologies</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11129</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>13-01-2025</t>
+        </is>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>846.61</v>
       </c>
       <c r="H3" t="n">
-        <v>485.82</v>
+        <v>152.39</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>IGST - 18%</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>33AAUCA1846M1Z8</t>
+          <t>24ABKCS2033B1ZV</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AL-2425-0038</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>45723</v>
-      </c>
-      <c r="D4" t="n">
-        <v>143885</v>
-      </c>
-      <c r="E4" t="n">
-        <v>25899.3</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
+          <t>Sandbox Financial Technologies</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11652</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>552</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>13-02-2025</t>
+        </is>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2287.29</v>
       </c>
       <c r="H4" t="n">
-        <v>25899.3</v>
+        <v>411.71</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>IGST - 18%</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BOOKS_ONLY_GSTIN1</t>
+          <t>33AAUCA1846M1Z8</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BOOKS_ONLY_001</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>45731</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5000</v>
-      </c>
-      <c r="E5" t="n">
-        <v>900</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
+          <t>Approlabs Private Limited</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>AL-2425-0038</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>07-03-2025</t>
+        </is>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>121936</v>
       </c>
       <c r="H5" t="n">
-        <v>900</v>
+        <v>21948.48</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>IGST - 18%</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>29AACCT3705E1ZJ</t>
+          <t>29AABCI2726B1ZY</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>I/O/003699/25-26</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>45750</v>
-      </c>
-      <c r="D6" t="n">
-        <v>885</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>79.65000000000001</v>
+          <t>Interglobe Aviation Limited</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>KA1242503DK97450</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>554</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>22-03-2025</t>
+        </is>
       </c>
       <c r="G6" t="n">
-        <v>79.65000000000001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>159.3</v>
+        <v>2200</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>55</v>
+      </c>
+      <c r="J6" t="n">
+        <v>55</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>CGST/SGST - 5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>29AAMCB6502D1ZS</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BKC PICMYCHIP TECH SERVICES PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>INV-000171</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>25-03-2025</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>3502</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>315.18</v>
+      </c>
+      <c r="J7" t="n">
+        <v>315.18</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>SGST - 9%</t>
+        </is>
       </c>
     </row>
   </sheetData>
